--- a/Template/Export/Sari_R4_8.xlsx
+++ b/Template/Export/Sari_R4_8.xlsx
@@ -2892,11 +2892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1581152800"/>
-        <c:axId val="1581151712"/>
+        <c:axId val="-306102752"/>
+        <c:axId val="-306107648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1581152800"/>
+        <c:axId val="-306102752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +2970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581151712"/>
+        <c:crossAx val="-306107648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +2980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1581151712"/>
+        <c:axId val="-306107648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,9 +3054,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581152800"/>
+        <c:crossAx val="-306102752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3952,8 +3953,8 @@
         </c:dLbls>
         <c:gapWidth val="8"/>
         <c:overlap val="100"/>
-        <c:axId val="1581140288"/>
-        <c:axId val="1581146272"/>
+        <c:axId val="-306106560"/>
+        <c:axId val="-306106016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4165,11 +4166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1581154432"/>
-        <c:axId val="1581152256"/>
+        <c:axId val="-306100032"/>
+        <c:axId val="-306100576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1581140288"/>
+        <c:axId val="-306106560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,7 +4230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581146272"/>
+        <c:crossAx val="-306106016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4239,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1581146272"/>
+        <c:axId val="-306106016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,12 +4300,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581140288"/>
+        <c:crossAx val="-306106560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1581152256"/>
+        <c:axId val="-306100576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4340,12 +4342,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1581154432"/>
+        <c:crossAx val="-306100032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1581154432"/>
+        <c:axId val="-306100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1581152256"/>
+        <c:crossAx val="-306100576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5175,7 +5178,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5724,8 +5726,8 @@
         </c:dLbls>
         <c:gapWidth val="8"/>
         <c:overlap val="100"/>
-        <c:axId val="1581145184"/>
-        <c:axId val="1581147904"/>
+        <c:axId val="-306112544"/>
+        <c:axId val="-306112000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5937,11 +5939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1527605408"/>
-        <c:axId val="1581149536"/>
+        <c:axId val="-307932144"/>
+        <c:axId val="-306111456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1581145184"/>
+        <c:axId val="-306112544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,7 +5970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581147904"/>
+        <c:crossAx val="-306112000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5977,7 +5979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1581147904"/>
+        <c:axId val="-306112000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6047,12 +6049,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581145184"/>
+        <c:crossAx val="-306112544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1581149536"/>
+        <c:axId val="-306111456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6107,12 +6110,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1527605408"/>
+        <c:crossAx val="-307932144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1527605408"/>
+        <c:axId val="-307932144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6121,7 +6125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1581149536"/>
+        <c:crossAx val="-306111456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6416,11 +6420,11 @@
         </c:dLbls>
         <c:gapWidth val="8"/>
         <c:overlap val="100"/>
-        <c:axId val="1746491808"/>
-        <c:axId val="1746491264"/>
+        <c:axId val="-307925616"/>
+        <c:axId val="-302050496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1746491808"/>
+        <c:axId val="-307925616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6470,7 +6474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1746491264"/>
+        <c:crossAx val="-302050496"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6478,7 +6482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1746491264"/>
+        <c:axId val="-302050496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6554,7 +6558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1746491808"/>
+        <c:crossAx val="-307925616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
